--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598319E5-5BA3-4075-9544-6CC280963764}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDF428-894F-4C4F-81D4-1FCA80691BC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二分类" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,34 @@
   </si>
   <si>
     <t>欧式距离，K=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=155，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=155，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_3.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰卡德距离，K=155，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_4.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -524,28 +552,58 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1164,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1277,7 @@
         <v>43379</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1238,7 +1296,7 @@
         <v>43379</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1315,7 @@
         <v>43379</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1272,7 +1330,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1454,5 +1512,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDF428-894F-4C4F-81D4-1FCA80691BC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374ECD17-2908-400B-B571-1A80DA8B37AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧式距离，K=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16337250_1.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧式距离，K=150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧式距离，K=200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +117,22 @@
   </si>
   <si>
     <t>16337250_4.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据已清洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -525,7 +529,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>0.79500000000000004</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,7 +549,9 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>0.85019999999999996</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -559,14 +567,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.64629999999999999</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -577,14 +587,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -595,23 +607,35 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.82750000000000001</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1158,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4553F21C-5342-487A-BE30-C44ECE264B37}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1236,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1307,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1284,53 +1326,33 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>43379</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>43379</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1491,24 +1513,6 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374ECD17-2908-400B-B571-1A80DA8B37AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D3ECC-46D9-48C3-A33A-14452D977876}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二分类" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=100，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=50，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单层神经网络</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -638,20 +654,40 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1182,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4553F21C-5342-487A-BE30-C44ECE264B37}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1254,9 +1290,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1264,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1370,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>43379</v>
+        <v>43380</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1316,7 +1389,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>43379</v>
+        <v>43380</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1334,12 +1407,22 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D3ECC-46D9-48C3-A33A-14452D977876}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02890015-728F-4F32-84BB-DC8D4B7AA240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二分类" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,70 @@
   </si>
   <si>
     <t>单层神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层6神经元隐藏层，sigmoid激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层8神经元隐藏层，sigmoid激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层10神经元隐藏层，sigmoid激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_5.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层6神经元隐藏层，tanh激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_6.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层8神经元隐藏层，tanh激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_7.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层10神经元隐藏层，tanh激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_8.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_9.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=50，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=100，数据已清洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +550,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -645,7 +709,9 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2">
+        <v>0.84699999999999998</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
@@ -663,7 +729,9 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0.82869999999999999</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
@@ -681,7 +749,9 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.83</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1218,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4553F21C-5342-487A-BE30-C44ECE264B37}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1352,9 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.33960000000000001</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1372,9 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.32900000000000001</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1318,12 +1392,94 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0.318</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1337,13 +1493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1378,7 +1534,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2">
+        <v>0.4536</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1555,9 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>0.55230000000000001</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +1576,9 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1426,84 +1588,188 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="3">
+        <v>43380</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">

--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02890015-728F-4F32-84BB-DC8D4B7AA240}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6089DEF0-5C6D-44B6-9080-AA9CD45F816E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二分类" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,35 +148,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单层神经网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1层6神经元隐藏层，sigmoid激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1层8神经元隐藏层，sigmoid激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1层10神经元隐藏层，sigmoid激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16337250_5.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1层6神经元隐藏层，tanh激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16337250_6.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1层8神经元隐藏层，tanh激活</t>
+    <t>余弦距离，K=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=50，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离，K=100，数据已清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层10神经元的sigmoid隐藏层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1层10神经元的tanh隐藏层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层10神经元的tanh隐藏层 200轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层10神经元的sigmoid隐藏层 200轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层10神经元的tanh隐藏层 500轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层10神经元的sigmoid隐藏层 500轮训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,7 +200,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1层10神经元隐藏层，tanh激活</t>
+    <t>余弦距离，K=150，不去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=100，不去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=50，不去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=50，去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=150，去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦距离，K=100，去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去重关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不去重关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,27 +236,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16337250_9.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余弦距离，K=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧式距离，K=100</t>
+    <t>2层10神经元的relu隐藏层 500轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层100神经元的tanh隐藏层 500轮训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧式距离，K=50，数据已清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧式距离，K=100，数据已清洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -760,76 +792,182 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.75229999999999997</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="3">
+        <v>43382</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1288,9 +1426,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4553F21C-5342-487A-BE30-C44ECE264B37}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1412,8 +1550,8 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
+      <c r="D6" s="2">
+        <v>0.32919999999999999</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1432,11 +1570,11 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
+      <c r="D7" s="2">
+        <v>0.2422</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1452,11 +1590,11 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
+      <c r="D8" s="2">
+        <v>0.23069999999999999</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -1472,14 +1610,34 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
+      <c r="D9" s="2">
+        <v>0.22520000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>43382</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1491,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1568,49 +1726,49 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.44400000000000001</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.55610000000000004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -1618,20 +1776,20 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="D6" s="2">
+        <v>0.65090000000000003</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -1639,20 +1797,20 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
+      <c r="D7" s="2">
+        <v>0.65149999999999997</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -1660,20 +1818,20 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
+      <c r="D8" s="2">
+        <v>0.64770000000000005</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -1681,20 +1839,20 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
+      <c r="D9" s="2">
+        <v>0.61980000000000002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -1702,20 +1860,20 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>0.65080000000000005</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>43380</v>
+        <v>43381</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -1723,14 +1881,14 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
+      <c r="D11" s="2">
+        <v>0.64129999999999998</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1742,33 +1900,35 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.65180000000000005</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>43381</v>
+        <v>43382</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1781,87 +1941,6 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6089DEF0-5C6D-44B6-9080-AA9CD45F816E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E237495-3598-4D24-A133-368F39007646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二分类" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,11 +240,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2层100神经元的tanh隐藏层 500轮训练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗， 10轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，停用词， 10轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据已清洗， 10轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据已清洗， 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据已清洗， 40轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层20神经元的relu隐藏层 1000轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层40神经元的tanh隐藏层 结合标签 1000轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层100,50,50,10神经元的sigmoid隐藏层 5轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数K=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数K=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层100,50,50,10神经元的sigmoid隐藏层 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗已padding， 10轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗已padding， 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗已paddign， 30轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层100,50,50,10神经元的tanh隐藏层 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层100,50,50,10神经元的relu隐藏层 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层40神经元的tanh隐藏层 结合标签 500轮训练(有错误)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层40神经元的tanh隐藏层 结合标签 1000轮训练(有错误)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,14 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.4140625" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" customWidth="1"/>
   </cols>
@@ -953,7 +1027,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -961,7 +1035,9 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0.84430000000000005</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
@@ -970,76 +1046,182 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="3">
+        <v>43383</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="3">
+        <v>43383</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="3">
+        <v>43383</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1408,14 +1590,6 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,7 +1603,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1630,8 +1804,8 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
+      <c r="D10" s="2">
+        <v>0.37580000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1649,14 +1823,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="22.58203125" customWidth="1"/>
   </cols>
@@ -1915,7 +2090,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>43382</v>
+        <v>43384</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -1923,9 +2098,11 @@
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.65210000000000001</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1933,13 +2110,175 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rank/log.xlsx
+++ b/rank/log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E237495-3598-4D24-A133-368F39007646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C440D67-FC9B-4D6F-9793-6FA4A1CEB694}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,66 @@
   </si>
   <si>
     <t>2层40神经元的tanh隐藏层 结合标签 1000轮训练(有错误)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16337250_9.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4层100,50,50,10神经元的sigmoid隐藏层 20轮训练 学习率=0.005 结合标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗， 20轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmod激活，数据未清洗， 30轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 20轮 relu 0.0000005 带标签 【6， 100， 50， 50， 10， 1】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 20轮 tanh 0.005 带标签 【6， 100， 50， 50， 10， 1】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 100轮 sigmoid 0.005 【6， 100， 50， 50， 10， 1】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression_result_K30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1275,9 @@
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>0.88460000000000005</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1224,20 +1286,44 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1582,14 +1668,6 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,16 +1901,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534E09B6-2F1A-4960-9579-E040624BB2D2}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="5" max="5" width="74.4140625" customWidth="1"/>
     <col min="6" max="6" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2119,7 +2197,9 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.64339999999999997</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
@@ -2138,7 +2218,9 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0.6351</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
@@ -2157,7 +2239,9 @@
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0.62209999999999999</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2260,9 @@
       <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0.63929999999999998</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2195,7 +2281,9 @@
       <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0.63839999999999997</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2214,7 +2302,9 @@
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0.63580000000000003</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
@@ -2233,7 +2323,9 @@
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0.64500000000000002</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2252,7 +2344,9 @@
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.51729999999999998</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2271,7 +2365,9 @@
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0.63519999999999999</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
@@ -2279,6 +2375,237 @@
         <v>52</v>
       </c>
       <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>43384</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
